--- a/development/DTD_roxygen_helper.xlsx
+++ b/development/DTD_roxygen_helper.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marian/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marian/Documents/git/DTD_spanglab/development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C9F091-7323-AC48-AEDB-D805FCC14C9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862608F5-DF31-EE4C-AA5A-D4FB095B6CD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37760" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{2FD9BA72-A0B2-B94C-9159-D42564E7651F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{2FD9BA72-A0B2-B94C-9159-D42564E7651F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -48,12 +48,6 @@
     <t>lambda.seq</t>
   </si>
   <si>
-    <t>#' @param lambda.seq numeric vector or NULL: Over this series of lambdas the
-#' FISTA will be optimized. If 'lambda.seq' is set to NULL, a generic series of
-#' lambdas - depending on the dimensions of the training set -  
-#' will be generated.</t>
-  </si>
-  <si>
     <t>tweak.start</t>
   </si>
   <si>
@@ -795,6 +789,13 @@
 #' implementation.
 #' Notice, if 'use.implementation' is set to "R" the cross validation
 #' function \code{\link{DTD_cv_lambda_R}} is used.</t>
+  </si>
+  <si>
+    <t>#' @param lambda.seq numeric vector or NULL or "none": Over this series of lambdas the
+#' FISTA will be optimized. If 'lambda.seq' is set to NULL, a generic series of
+#' lambdas - depending on the dimensions of the training set -
+#' will be generated. If 'lambda.seq' is "none", no cross validation is done.
+#' Only one model with lambda = 0 is trained on the complete data set.</t>
   </si>
 </sst>
 </file>
@@ -1157,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A131ADF-3E76-0F45-98E4-1CD4F8D1BB7C}">
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1184,24 +1185,24 @@
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1209,13 +1210,13 @@
     </row>
     <row r="4" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1223,13 +1224,13 @@
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1237,90 +1238,90 @@
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1328,13 +1329,13 @@
     </row>
     <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1342,13 +1343,13 @@
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1356,13 +1357,13 @@
     </row>
     <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1370,24 +1371,24 @@
     </row>
     <row r="17" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1395,13 +1396,13 @@
     </row>
     <row r="19" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
         <v>15</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1409,57 +1410,57 @@
     </row>
     <row r="20" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1467,13 +1468,13 @@
     </row>
     <row r="25" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1481,134 +1482,134 @@
     </row>
     <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>5</v>
+        <v>192</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" t="s">
         <v>60</v>
       </c>
-      <c r="C36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1616,13 +1617,13 @@
     </row>
     <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -1630,112 +1631,112 @@
     </row>
     <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" t="s">
         <v>9</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" t="s">
         <v>79</v>
-      </c>
-      <c r="C44" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1743,13 +1744,13 @@
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -1757,24 +1758,24 @@
     </row>
     <row r="50" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1782,13 +1783,13 @@
     </row>
     <row r="52" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -1796,90 +1797,90 @@
     </row>
     <row r="53" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="C53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" t="s">
         <v>131</v>
-      </c>
-      <c r="C54" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C57" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -1887,13 +1888,13 @@
     </row>
     <row r="61" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1901,13 +1902,13 @@
     </row>
     <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -1915,13 +1916,13 @@
     </row>
     <row r="63" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -1929,101 +1930,101 @@
     </row>
     <row r="64" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C68" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -2031,104 +2032,104 @@
     </row>
     <row r="73" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>190</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -2136,13 +2137,13 @@
     </row>
     <row r="82" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -2150,24 +2151,24 @@
     </row>
     <row r="83" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
